--- a/data/index/corpus_b_v1_20251230.xlsx
+++ b/data/index/corpus_b_v1_20251230.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DDB584-176C-164A-AED3-016EF7877216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C283-B790-5E45-9C1C-519124E07798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28400" yWindow="620" windowWidth="10000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="19260" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corpus_b" sheetId="1" r:id="rId1"/>
@@ -1604,7 +1604,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,6 +1614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1654,6 +1660,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1958,11 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2098,8 +2109,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2178,8 +2189,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2252,8 +2263,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2326,8 +2337,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2409,8 +2420,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2640,8 +2651,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2717,7 +2728,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
@@ -2865,7 +2876,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
@@ -2945,7 +2956,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>144</v>
       </c>
@@ -3102,7 +3113,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>151</v>
       </c>
@@ -3179,8 +3190,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3256,8 +3267,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:40" ht="128" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3339,8 +3350,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3422,8 +3433,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3505,8 +3516,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:40" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3588,8 +3599,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3674,8 +3685,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3748,8 +3759,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3822,8 +3833,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3899,8 +3910,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3976,8 +3987,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4050,8 +4061,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4125,7 +4136,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4199,7 +4210,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4273,7 +4284,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4355,8 +4366,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4429,8 +4440,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4503,8 +4514,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="304" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:40" ht="304" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4592,7 +4603,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>304</v>
       </c>
@@ -4675,7 +4686,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>316</v>
       </c>
@@ -4758,7 +4769,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>319</v>
       </c>
@@ -4835,7 +4846,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>324</v>
       </c>
@@ -4912,7 +4923,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>328</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>332</v>
       </c>
@@ -5081,7 +5092,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>340</v>
       </c>
@@ -5158,7 +5169,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>343</v>
       </c>
@@ -5241,7 +5252,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>346</v>
       </c>
@@ -5330,7 +5341,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>349</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>357</v>
       </c>
@@ -5502,7 +5513,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>366</v>
       </c>
@@ -5582,7 +5593,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>370</v>
       </c>
@@ -5662,7 +5673,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>376</v>
       </c>
@@ -5736,7 +5747,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>381</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="288" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>388</v>
       </c>
@@ -5893,7 +5904,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>393</v>
       </c>
@@ -5967,8 +5978,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6050,8 +6061,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -6145,8 +6156,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -6246,8 +6257,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -6323,8 +6334,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -6409,8 +6420,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>444</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -6498,8 +6509,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -6578,8 +6589,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>464</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -6664,7 +6675,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>476</v>
       </c>
@@ -6738,8 +6749,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -6824,7 +6835,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>495</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>490</v>
       </c>
@@ -6979,13 +6990,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Sokolov M."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AN62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/index/corpus_b_v1_20251230.xlsx
+++ b/data/index/corpus_b_v1_20251230.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C283-B790-5E45-9C1C-519124E07798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D34797-8A03-9140-9C43-585623DA0B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="19260" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15740" yWindow="1620" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corpus_b" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
 Матюша просит у Бурки сделать его всегда красивым. Жена узнаёт в нём того, кто до окна допрыгнул.]</t>
   </si>
   <si>
-    <t>era_vene_7_ 95_1</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>era_vene_16_ 744_22</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -1582,7 +1576,13 @@
     <t>849*</t>
   </si>
   <si>
-    <t>К</t>
+    <t>era_vene_13_73_9</t>
+  </si>
+  <si>
+    <t>era_vene_16_744_22</t>
+  </si>
+  <si>
+    <t>era_vene_7_95_1</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1663,9 +1663,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1970,20 +1967,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="3" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" style="2"/>
-    <col min="6" max="7" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2" customWidth="1"/>
     <col min="8" max="12" width="8.83203125" style="2"/>
-    <col min="13" max="40" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="40" width="8.83203125" style="2" customWidth="1"/>
     <col min="41" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2109,7 +2107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -2337,7 +2335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
@@ -2653,16 +2651,16 @@
     </row>
     <row r="9" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>495</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -2671,34 +2669,34 @@
         <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>57</v>
@@ -2728,18 +2726,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
@@ -2748,22 +2746,22 @@
         <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>54</v>
@@ -2772,7 +2770,7 @@
         <v>55</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>57</v>
@@ -2802,18 +2800,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
@@ -2822,22 +2820,22 @@
         <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>54</v>
@@ -2846,7 +2844,7 @@
         <v>55</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>57</v>
@@ -2876,18 +2874,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
@@ -2896,22 +2894,22 @@
         <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>54</v>
@@ -2920,19 +2918,19 @@
         <v>55</v>
       </c>
       <c r="Z12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH12" s="2" t="s">
         <v>59</v>
@@ -2956,18 +2954,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="176" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -2976,25 +2974,25 @@
         <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>54</v>
@@ -3003,19 +3001,19 @@
         <v>55</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="AH13" s="2" t="s">
         <v>59</v>
@@ -3039,18 +3037,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
@@ -3059,22 +3057,22 @@
         <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>54</v>
@@ -3083,7 +3081,7 @@
         <v>55</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>57</v>
@@ -3113,18 +3111,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
@@ -3133,22 +3131,22 @@
         <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>54</v>
@@ -3157,10 +3155,10 @@
         <v>55</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>57</v>
@@ -3190,45 +3188,45 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>54</v>
@@ -3267,45 +3265,45 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="128" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>168</v>
+    <row r="17" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>54</v>
@@ -3314,19 +3312,19 @@
         <v>55</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG17" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>59</v>
@@ -3350,48 +3348,48 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>54</v>
@@ -3400,10 +3398,10 @@
         <v>55</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>57</v>
@@ -3433,51 +3431,51 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>54</v>
@@ -3486,7 +3484,7 @@
         <v>55</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>57</v>
@@ -3516,45 +3514,45 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>54</v>
@@ -3563,19 +3561,19 @@
         <v>55</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG20" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH20" s="2" t="s">
         <v>59</v>
@@ -3599,57 +3597,57 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>55</v>
@@ -3685,42 +3683,42 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>54</v>
@@ -3729,7 +3727,7 @@
         <v>55</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>57</v>
@@ -3759,42 +3757,42 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>54</v>
@@ -3803,7 +3801,7 @@
         <v>55</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>57</v>
@@ -3833,18 +3831,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -3853,25 +3851,25 @@
         <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>54</v>
@@ -3880,7 +3878,7 @@
         <v>55</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>57</v>
@@ -3910,18 +3908,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
@@ -3930,22 +3928,22 @@
         <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>54</v>
@@ -3954,10 +3952,10 @@
         <v>55</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF25" s="2" t="s">
         <v>57</v>
@@ -3987,18 +3985,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
@@ -4007,22 +4005,22 @@
         <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>54</v>
@@ -4031,7 +4029,7 @@
         <v>55</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>57</v>
@@ -4061,18 +4059,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>44</v>
@@ -4081,22 +4079,22 @@
         <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>54</v>
@@ -4105,7 +4103,7 @@
         <v>55</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>57</v>
@@ -4135,9 +4133,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -4146,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
@@ -4155,7 +4153,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>93</v>
@@ -4164,13 +4162,13 @@
         <v>50</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>54</v>
@@ -4179,7 +4177,7 @@
         <v>55</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF28" s="2" t="s">
         <v>57</v>
@@ -4209,9 +4207,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
@@ -4220,7 +4218,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>44</v>
@@ -4229,7 +4227,7 @@
         <v>45</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>93</v>
@@ -4238,13 +4236,13 @@
         <v>50</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>54</v>
@@ -4253,7 +4251,7 @@
         <v>55</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>57</v>
@@ -4283,9 +4281,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>41</v>
@@ -4294,7 +4292,7 @@
         <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>44</v>
@@ -4303,7 +4301,7 @@
         <v>45</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>93</v>
@@ -4312,13 +4310,13 @@
         <v>50</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>54</v>
@@ -4327,22 +4325,22 @@
         <v>55</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG30" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>59</v>
@@ -4368,16 +4366,16 @@
     </row>
     <row r="31" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>44</v>
@@ -4386,22 +4384,22 @@
         <v>45</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>54</v>
@@ -4410,7 +4408,7 @@
         <v>55</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF31" s="2" t="s">
         <v>57</v>
@@ -4440,18 +4438,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>44</v>
@@ -4460,22 +4458,22 @@
         <v>45</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>54</v>
@@ -4484,7 +4482,7 @@
         <v>55</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>57</v>
@@ -4514,18 +4512,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="304" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>44</v>
@@ -4534,31 +4532,31 @@
         <v>45</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>54</v>
@@ -4567,19 +4565,19 @@
         <v>55</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG33" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH33" s="2" t="s">
         <v>59</v>
@@ -4603,18 +4601,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>44</v>
@@ -4623,31 +4621,31 @@
         <v>45</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>54</v>
@@ -4656,7 +4654,7 @@
         <v>55</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF34" s="2" t="s">
         <v>57</v>
@@ -4686,18 +4684,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>44</v>
@@ -4706,31 +4704,31 @@
         <v>45</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="T35" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>54</v>
@@ -4769,18 +4767,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>44</v>
@@ -4789,25 +4787,25 @@
         <v>45</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T36" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>54</v>
@@ -4816,7 +4814,7 @@
         <v>55</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF36" s="2" t="s">
         <v>57</v>
@@ -4846,18 +4844,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>44</v>
@@ -4866,25 +4864,25 @@
         <v>45</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>54</v>
@@ -4893,7 +4891,7 @@
         <v>55</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF37" s="2" t="s">
         <v>57</v>
@@ -4923,18 +4921,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>44</v>
@@ -4943,25 +4941,25 @@
         <v>45</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>54</v>
@@ -4970,19 +4968,19 @@
         <v>55</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG38" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH38" s="2" t="s">
         <v>59</v>
@@ -5006,18 +5004,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -5026,43 +5024,43 @@
         <v>45</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O39" s="2" t="s">
+      <c r="R39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>57</v>
@@ -5092,18 +5090,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>44</v>
@@ -5112,25 +5110,25 @@
         <v>45</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T40" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>54</v>
@@ -5139,7 +5137,7 @@
         <v>55</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF40" s="2" t="s">
         <v>57</v>
@@ -5169,18 +5167,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>44</v>
@@ -5189,31 +5187,31 @@
         <v>45</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>80</v>
       </c>
       <c r="Q41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="T41" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>54</v>
@@ -5222,7 +5220,7 @@
         <v>55</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF41" s="2" t="s">
         <v>57</v>
@@ -5252,18 +5250,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -5272,31 +5270,31 @@
         <v>45</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="Q42" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="T42" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>54</v>
@@ -5305,19 +5303,19 @@
         <v>55</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG42" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH42" s="2" t="s">
         <v>59</v>
@@ -5341,18 +5339,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>44</v>
@@ -5361,22 +5359,22 @@
         <v>45</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O43" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>54</v>
@@ -5385,22 +5383,22 @@
         <v>55</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB43" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG43" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH43" s="2" t="s">
         <v>59</v>
@@ -5424,18 +5422,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>44</v>
@@ -5444,22 +5442,22 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>54</v>
@@ -5468,28 +5466,28 @@
         <v>55</v>
       </c>
       <c r="Y44" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC44" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="Z44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA44" s="2" t="s">
+      <c r="AD44" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AB44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AC44" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH44" s="2" t="s">
         <v>59</v>
@@ -5513,18 +5511,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>44</v>
@@ -5533,22 +5531,22 @@
         <v>45</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U45" s="2" t="s">
         <v>54</v>
@@ -5557,19 +5555,19 @@
         <v>55</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG45" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG45" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH45" s="2" t="s">
         <v>59</v>
@@ -5593,18 +5591,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -5613,22 +5611,22 @@
         <v>45</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>54</v>
@@ -5637,19 +5635,19 @@
         <v>55</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AF46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG46" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG46" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH46" s="2" t="s">
         <v>59</v>
@@ -5673,18 +5671,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="112" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>44</v>
@@ -5693,22 +5691,22 @@
         <v>45</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>54</v>
@@ -5717,7 +5715,7 @@
         <v>55</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF47" s="2" t="s">
         <v>57</v>
@@ -5747,18 +5745,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>44</v>
@@ -5767,22 +5765,22 @@
         <v>45</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>54</v>
@@ -5791,16 +5789,16 @@
         <v>55</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE48" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="AF48" s="2" t="s">
         <v>57</v>
@@ -5830,18 +5828,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="288" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>44</v>
@@ -5850,22 +5848,22 @@
         <v>45</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>54</v>
@@ -5874,7 +5872,7 @@
         <v>55</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF49" s="2" t="s">
         <v>57</v>
@@ -5904,18 +5902,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -5924,22 +5922,22 @@
         <v>45</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>54</v>
@@ -5948,7 +5946,7 @@
         <v>55</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF50" s="2" t="s">
         <v>57</v>
@@ -5978,18 +5976,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>44</v>
@@ -5998,31 +5996,31 @@
         <v>45</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="P51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q51" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O51" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q51" s="2" t="s">
+      <c r="S51" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="T51" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>54</v>
@@ -6061,54 +6059,54 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>408</v>
+    <row r="52" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O52" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="S52" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="T52" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>54</v>
@@ -6117,16 +6115,16 @@
         <v>55</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF52" s="2" t="s">
         <v>57</v>
@@ -6156,78 +6154,78 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>421</v>
+    <row r="53" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R53" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T53" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="U53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="X53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF53" s="2" t="s">
         <v>57</v>
@@ -6257,45 +6255,45 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>434</v>
+    <row r="54" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>54</v>
@@ -6304,7 +6302,7 @@
         <v>55</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF54" s="2" t="s">
         <v>57</v>
@@ -6334,45 +6332,45 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>439</v>
+    <row r="55" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>54</v>
@@ -6381,16 +6379,16 @@
         <v>55</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF55" s="2" t="s">
         <v>57</v>
@@ -6420,51 +6418,51 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O56" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="S56" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="T56" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>54</v>
@@ -6473,19 +6471,19 @@
         <v>55</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AF56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG56" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG56" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH56" s="2" t="s">
         <v>59</v>
@@ -6509,18 +6507,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>44</v>
@@ -6529,37 +6527,37 @@
         <v>45</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="S57" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="R57" s="2" t="s">
+      <c r="T57" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF57" s="2" t="s">
         <v>57</v>
@@ -6580,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="AL57" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM57" s="2" t="s">
         <v>63</v>
@@ -6589,51 +6587,51 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O58" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>54</v>
@@ -6642,7 +6640,7 @@
         <v>55</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AC58" s="2" t="s">
         <v>56</v>
@@ -6666,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="AL58" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM58" s="2" t="s">
         <v>63</v>
@@ -6675,18 +6673,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>44</v>
@@ -6695,22 +6693,22 @@
         <v>45</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>54</v>
@@ -6719,7 +6717,7 @@
         <v>55</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF59" s="2" t="s">
         <v>57</v>
@@ -6740,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="AL59" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM59" s="2" t="s">
         <v>63</v>
@@ -6749,18 +6747,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>44</v>
@@ -6769,49 +6767,49 @@
         <v>45</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="X60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="Z60" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AA60" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="AF60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG60" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AG60" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AH60" s="2" t="s">
         <v>59</v>
@@ -6826,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="AL60" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM60" s="2" t="s">
         <v>63</v>
@@ -6835,18 +6833,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="96" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>44</v>
@@ -6855,22 +6853,22 @@
         <v>45</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>54</v>
@@ -6879,7 +6877,7 @@
         <v>55</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF61" s="2" t="s">
         <v>57</v>
@@ -6900,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="AL61" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM61" s="2" t="s">
         <v>63</v>
@@ -6909,18 +6907,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>44</v>
@@ -6929,22 +6927,22 @@
         <v>45</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>54</v>
@@ -6953,10 +6951,10 @@
         <v>55</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC62" s="2" t="s">
         <v>73</v>
@@ -6980,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="AL62" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM62" s="2" t="s">
         <v>63</v>
@@ -6990,7 +6988,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN62" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/index/corpus_b_v1_20251230.xlsx
+++ b/data/index/corpus_b_v1_20251230.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D34797-8A03-9140-9C43-585623DA0B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354C432-7445-5A4A-AE16-0D0ADE062671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="1620" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corpus_b" sheetId="1" r:id="rId1"/>
@@ -1970,7 +1970,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -2107,7 +2107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>123</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>133</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>494</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>149</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>155</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>166</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>182</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>195</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>205</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>216</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>225</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>229</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>239</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>247</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>254</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>261</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>268</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>271</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>284</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="304" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>292</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>302</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>314</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>317</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>322</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>326</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>330</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>338</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>341</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>344</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>347</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>355</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>364</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>368</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="112" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>374</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>379</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="288" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>386</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>391</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>396</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>406</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>419</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>432</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>437</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>442</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="144" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>453</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>462</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>474</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>480</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>493</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>488</v>
       </c>
@@ -6990,9 +6990,9 @@
   </sheetData>
   <autoFilter ref="A1:AN62" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
-      <filters>
-        <filter val="7"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val="7"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
